--- a/data/trans_orig/P34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61B0474-0E71-4B60-AFD3-9ED102FF4A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{585D525B-690E-466A-B34F-4E8447B582FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{225FBCE2-7E8F-491F-BB2B-82DDECFBEC7F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6B77917-C051-4DAE-8F55-A2498BF5D0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="809">
   <si>
     <t>Población según el ejercicio físico que implica su actividad laboral en 2007 (Tasa respuesta: 99,11%)</t>
   </si>
@@ -77,2425 +77,2395 @@
     <t>13,01%</t>
   </si>
   <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>De pie la mayor parte sin grandes desplazamientos o esfuerzo</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>Sentado la mayor parte de la jornada</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>De pie la mayor parte sin grandes desplazamientos o esfuerzo</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>Sentado la mayor parte de la jornada</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2015 (Tasa respuesta: 99,41%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>37,63%</t>
   </si>
   <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2015 (Tasa respuesta: 99,41%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>35,12%</t>
+    <t>29,88%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>32,34%</t>
   </si>
 </sst>
 </file>
@@ -2907,7 +2877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A64D92-967E-402A-8892-37B42F5AB4D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CDA1DC-E22E-441F-8C63-FA7D6CFA2E4D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3542,7 +3512,7 @@
         <v>70</v>
       </c>
       <c r="D14" s="7">
-        <v>76698</v>
+        <v>76699</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -3731,10 +3701,10 @@
         <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3716,7 @@
         <v>891</v>
       </c>
       <c r="D18" s="7">
-        <v>956679</v>
+        <v>956680</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -3790,7 +3760,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3802,13 +3772,13 @@
         <v>38115</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -3817,13 +3787,13 @@
         <v>22728</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -3832,13 +3802,13 @@
         <v>60843</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,10 +3826,10 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -3868,13 +3838,13 @@
         <v>44492</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -3883,13 +3853,13 @@
         <v>153970</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3874,13 @@
         <v>278874</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>440</v>
@@ -3919,13 +3889,13 @@
         <v>431562</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>706</v>
@@ -3934,13 +3904,13 @@
         <v>710437</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3925,13 @@
         <v>245006</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -3970,13 +3940,13 @@
         <v>180241</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>415</v>
@@ -3985,13 +3955,13 @@
         <v>425247</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4017,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4059,13 +4029,13 @@
         <v>55824</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -4074,13 +4044,13 @@
         <v>48423</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>104</v>
@@ -4089,13 +4059,13 @@
         <v>104248</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4080,13 @@
         <v>133870</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -4125,13 +4095,13 @@
         <v>81763</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>214</v>
@@ -4140,13 +4110,13 @@
         <v>215633</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4131,13 @@
         <v>312659</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>474</v>
@@ -4176,13 +4146,13 @@
         <v>495451</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>801</v>
@@ -4191,13 +4161,13 @@
         <v>808111</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4182,13 @@
         <v>422814</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>386</v>
@@ -4227,13 +4197,13 @@
         <v>398596</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>841</v>
@@ -4242,13 +4212,13 @@
         <v>821410</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4286,13 @@
         <v>242261</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>134</v>
@@ -4331,13 +4301,13 @@
         <v>135360</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>365</v>
@@ -4346,13 +4316,13 @@
         <v>377621</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4337,13 @@
         <v>519716</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>220</v>
@@ -4382,13 +4352,13 @@
         <v>229773</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>715</v>
@@ -4397,13 +4367,13 @@
         <v>749489</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4388,13 @@
         <v>1223899</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>1889</v>
@@ -4433,13 +4403,13 @@
         <v>1939911</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>3083</v>
@@ -4448,13 +4418,13 @@
         <v>3163810</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4439,13 @@
         <v>1257296</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>1029</v>
@@ -4484,13 +4454,13 @@
         <v>1048141</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>2290</v>
@@ -4499,13 +4469,13 @@
         <v>2305437</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,7 +4531,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4582,7 +4552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E205C9-F93C-433F-B707-3C7D99E1913F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E803DDAC-1513-410D-B926-4111A3F7FE24}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4599,7 +4569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4706,13 +4676,13 @@
         <v>3478</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4721,13 +4691,13 @@
         <v>2195</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4736,13 +4706,13 @@
         <v>5673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4727,13 @@
         <v>17330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4772,13 +4742,13 @@
         <v>21870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4787,13 +4757,13 @@
         <v>39200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4778,13 @@
         <v>69241</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>61</v>
@@ -4823,13 +4793,13 @@
         <v>68074</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>129</v>
@@ -4838,13 +4808,13 @@
         <v>137315</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4829,13 @@
         <v>24989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4874,13 +4844,13 @@
         <v>18717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -4889,13 +4859,13 @@
         <v>43707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4933,13 @@
         <v>34992</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4978,13 +4948,13 @@
         <v>1928</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -4993,13 +4963,13 @@
         <v>36919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +4984,13 @@
         <v>69692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5029,13 +4999,13 @@
         <v>55299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -5044,13 +5014,13 @@
         <v>124991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5035,13 @@
         <v>320428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H11" s="7">
         <v>358</v>
@@ -5080,13 +5050,13 @@
         <v>379335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>665</v>
@@ -5095,13 +5065,13 @@
         <v>699763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5086,13 @@
         <v>159233</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H12" s="7">
         <v>139</v>
@@ -5131,13 +5101,13 @@
         <v>146597</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M12" s="7">
         <v>284</v>
@@ -5146,13 +5116,13 @@
         <v>305831</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>302</v>
+        <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5190,13 @@
         <v>42200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5235,13 +5205,13 @@
         <v>5047</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -5250,13 +5220,13 @@
         <v>47248</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5241,13 @@
         <v>127781</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
         <v>87</v>
@@ -5286,13 +5256,13 @@
         <v>93980</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M15" s="7">
         <v>205</v>
@@ -5301,13 +5271,13 @@
         <v>221760</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>68</v>
+        <v>313</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5292,13 @@
         <v>532654</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H16" s="7">
         <v>555</v>
@@ -5337,13 +5307,13 @@
         <v>609988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
         <v>1043</v>
@@ -5352,13 +5322,13 @@
         <v>1142642</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5343,13 @@
         <v>312128</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>290</v>
@@ -5388,13 +5358,13 @@
         <v>319893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>577</v>
@@ -5403,13 +5373,13 @@
         <v>632021</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,7 +5435,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5477,13 +5447,13 @@
         <v>28502</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5492,13 +5462,13 @@
         <v>5131</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5507,13 +5477,13 @@
         <v>33633</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5498,13 @@
         <v>140045</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -5543,13 +5513,13 @@
         <v>80351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>203</v>
@@ -5558,13 +5528,13 @@
         <v>220396</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5549,13 @@
         <v>344877</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H21" s="7">
         <v>407</v>
@@ -5594,13 +5564,13 @@
         <v>454894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M21" s="7">
         <v>720</v>
@@ -5609,13 +5579,13 @@
         <v>799770</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5600,13 @@
         <v>240172</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>213</v>
@@ -5645,13 +5615,13 @@
         <v>228093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -5660,13 +5630,13 @@
         <v>468265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,7 +5692,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5734,13 +5704,13 @@
         <v>28494</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5749,13 +5719,13 @@
         <v>9492</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -5764,13 +5734,13 @@
         <v>37986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5755,13 @@
         <v>106285</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5800,13 +5770,13 @@
         <v>77928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="M25" s="7">
         <v>178</v>
@@ -5815,13 +5785,13 @@
         <v>184213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,10 +5890,10 @@
         <v>402</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>227</v>
+        <v>403</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,10 +5961,10 @@
         <v>137666</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>128</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>406</v>
@@ -6006,7 +5976,7 @@
         <v>23793</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>407</v>
@@ -6024,10 +5994,10 @@
         <v>409</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>410</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6012,13 @@
         <v>461133</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H30" s="7">
         <v>303</v>
@@ -6057,13 +6027,13 @@
         <v>329427</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M30" s="7">
         <v>737</v>
@@ -6072,13 +6042,13 @@
         <v>790561</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6063,13 @@
         <v>1727916</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="H31" s="7">
         <v>1985</v>
@@ -6108,13 +6078,13 @@
         <v>2140860</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M31" s="7">
         <v>3605</v>
@@ -6123,13 +6093,13 @@
         <v>3868777</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,7 +6150,7 @@
         <v>434</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,7 +6206,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6257,7 +6227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A53614-F226-4077-9A49-E510AFFC1E16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F395BA-44FC-435F-A8B7-5431275297A2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6274,7 +6244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6381,13 +6351,13 @@
         <v>1926</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6396,13 +6366,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6411,13 +6381,13 @@
         <v>1926</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6402,13 @@
         <v>22149</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6447,13 +6417,13 @@
         <v>8887</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -6462,13 +6432,13 @@
         <v>31036</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6453,13 @@
         <v>60634</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>73</v>
@@ -6498,13 +6468,13 @@
         <v>71301</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>131</v>
@@ -6513,13 +6483,13 @@
         <v>131934</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6504,13 @@
         <v>29930</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -6549,13 +6519,13 @@
         <v>33172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>464</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -6564,13 +6534,13 @@
         <v>63102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6608,13 @@
         <v>14465</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6653,13 +6623,13 @@
         <v>2705</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>474</v>
+        <v>339</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -6668,13 +6638,13 @@
         <v>17170</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>344</v>
+        <v>471</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>476</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6659,13 @@
         <v>45508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -6704,13 +6674,13 @@
         <v>32281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -6719,13 +6689,13 @@
         <v>77788</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>484</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6710,13 @@
         <v>309282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H11" s="7">
         <v>372</v>
@@ -6755,13 +6725,13 @@
         <v>371506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7">
         <v>673</v>
@@ -6770,13 +6740,13 @@
         <v>680788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6761,13 @@
         <v>183099</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -6806,13 +6776,13 @@
         <v>150748</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>498</v>
+        <v>120</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M12" s="7">
         <v>319</v>
@@ -6821,13 +6791,13 @@
         <v>333847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6865,13 @@
         <v>22922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -6910,13 +6880,13 @@
         <v>3580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>509</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -6925,13 +6895,13 @@
         <v>26502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6916,13 @@
         <v>111954</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>511</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>351</v>
+        <v>505</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -6961,13 +6931,13 @@
         <v>70948</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M15" s="7">
         <v>168</v>
@@ -6976,13 +6946,13 @@
         <v>182902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6967,13 @@
         <v>534028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>645</v>
@@ -7012,13 +6982,13 @@
         <v>682805</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>1136</v>
@@ -7027,13 +6997,13 @@
         <v>1216833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7018,13 @@
         <v>348506</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
@@ -7063,13 +7033,13 @@
         <v>278439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>530</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>587</v>
@@ -7078,13 +7048,13 @@
         <v>626945</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,7 +7110,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7152,13 +7122,13 @@
         <v>20948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7167,13 +7137,13 @@
         <v>3051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>377</v>
+        <v>529</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -7182,13 +7152,13 @@
         <v>23999</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>533</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7173,13 @@
         <v>101706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>535</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>537</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -7218,13 +7188,13 @@
         <v>71487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -7233,13 +7203,13 @@
         <v>173193</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>545</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7224,13 @@
         <v>369415</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H21" s="7">
         <v>419</v>
@@ -7269,13 +7239,13 @@
         <v>439212</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M21" s="7">
         <v>765</v>
@@ -7284,13 +7254,13 @@
         <v>808627</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7275,13 @@
         <v>262497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H22" s="7">
         <v>245</v>
@@ -7320,13 +7290,13 @@
         <v>270321</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>483</v>
@@ -7335,13 +7305,13 @@
         <v>532817</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,7 +7367,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7409,13 +7379,13 @@
         <v>30267</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -7424,13 +7394,13 @@
         <v>7787</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -7442,10 +7412,10 @@
         <v>566</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>567</v>
+        <v>377</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>568</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7430,13 @@
         <v>107301</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>571</v>
+        <v>99</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -7475,13 +7445,13 @@
         <v>81548</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M25" s="7">
         <v>186</v>
@@ -7490,13 +7460,13 @@
         <v>188849</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>576</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>577</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7481,13 @@
         <v>382274</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H26" s="7">
         <v>538</v>
@@ -7526,13 +7496,13 @@
         <v>574818</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
         <v>918</v>
@@ -7541,13 +7511,13 @@
         <v>957091</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7532,13 @@
         <v>409275</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H27" s="7">
         <v>330</v>
@@ -7577,13 +7547,13 @@
         <v>374078</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="M27" s="7">
         <v>739</v>
@@ -7592,13 +7562,13 @@
         <v>783353</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,13 +7636,13 @@
         <v>90528</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>597</v>
+        <v>57</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>598</v>
+        <v>128</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -7681,13 +7651,13 @@
         <v>17123</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -7696,13 +7666,13 @@
         <v>107651</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7717,13 +7687,13 @@
         <v>388618</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H30" s="7">
         <v>257</v>
@@ -7732,13 +7702,13 @@
         <v>265151</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>608</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>616</v>
@@ -7747,13 +7717,13 @@
         <v>653769</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>610</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7768,13 +7738,13 @@
         <v>1655632</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="H31" s="7">
         <v>2047</v>
@@ -7783,13 +7753,13 @@
         <v>2139642</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="M31" s="7">
         <v>3623</v>
@@ -7798,13 +7768,13 @@
         <v>3795274</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,16 +7786,16 @@
         <v>1188</v>
       </c>
       <c r="D32" s="7">
-        <v>1233307</v>
+        <v>1233308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="H32" s="7">
         <v>1002</v>
@@ -7834,28 +7804,28 @@
         <v>1106757</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="M32" s="7">
         <v>2190</v>
       </c>
       <c r="N32" s="7">
-        <v>2340065</v>
+        <v>2340064</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,7 +7837,7 @@
         <v>3207</v>
       </c>
       <c r="D33" s="7">
-        <v>3368085</v>
+        <v>3368086</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -7897,7 +7867,7 @@
         <v>6530</v>
       </c>
       <c r="N33" s="7">
-        <v>6896759</v>
+        <v>6896758</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -7911,7 +7881,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -7932,7 +7902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89ED7E6F-0C8B-42EE-98C4-207D30986751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B317DE-46DF-4D65-9765-90A6C8DBE535}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7949,7 +7919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8056,13 +8026,13 @@
         <v>16367</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -8071,13 +8041,13 @@
         <v>1344</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>633</v>
+        <v>531</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -8086,13 +8056,13 @@
         <v>17711</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>635</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8077,13 @@
         <v>26821</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -8122,13 +8092,13 @@
         <v>20308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="M5" s="7">
         <v>63</v>
@@ -8137,13 +8107,13 @@
         <v>47129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8128,13 @@
         <v>32526</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="H6" s="7">
         <v>133</v>
@@ -8173,13 +8143,13 @@
         <v>70895</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>454</v>
+        <v>639</v>
       </c>
       <c r="M6" s="7">
         <v>164</v>
@@ -8188,13 +8158,13 @@
         <v>103420</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8209,13 +8179,13 @@
         <v>24131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -8224,13 +8194,13 @@
         <v>37024</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -8239,13 +8209,13 @@
         <v>61155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>659</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8283,13 @@
         <v>53068</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>178</v>
+        <v>653</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -8328,13 +8298,13 @@
         <v>18854</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>656</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -8343,13 +8313,13 @@
         <v>71922</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>667</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8334,13 @@
         <v>136928</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -8379,13 +8349,13 @@
         <v>123051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="M10" s="7">
         <v>345</v>
@@ -8394,13 +8364,13 @@
         <v>259978</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8415,13 +8385,13 @@
         <v>195355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="H11" s="7">
         <v>446</v>
@@ -8430,13 +8400,13 @@
         <v>264696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="M11" s="7">
         <v>665</v>
@@ -8445,13 +8415,13 @@
         <v>460051</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8466,13 +8436,13 @@
         <v>162396</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="H12" s="7">
         <v>320</v>
@@ -8481,13 +8451,13 @@
         <v>184463</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>559</v>
+        <v>682</v>
       </c>
       <c r="M12" s="7">
         <v>514</v>
@@ -8496,13 +8466,13 @@
         <v>346860</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8540,13 @@
         <v>77628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>687</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -8585,13 +8555,13 @@
         <v>25883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="M14" s="7">
         <v>113</v>
@@ -8600,13 +8570,13 @@
         <v>103510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8591,13 @@
         <v>253104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H15" s="7">
         <v>269</v>
@@ -8636,13 +8606,13 @@
         <v>200798</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="M15" s="7">
         <v>470</v>
@@ -8651,13 +8621,13 @@
         <v>453903</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,13 +8642,13 @@
         <v>354794</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="H16" s="7">
         <v>704</v>
@@ -8687,13 +8657,13 @@
         <v>482094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>711</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>713</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>1049</v>
@@ -8702,13 +8672,13 @@
         <v>836888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>620</v>
+        <v>708</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8693,13 @@
         <v>342991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="H17" s="7">
         <v>501</v>
@@ -8738,13 +8708,13 @@
         <v>346303</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>719</v>
+        <v>585</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -8753,13 +8723,13 @@
         <v>689294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8815,7 +8785,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8827,13 +8797,13 @@
         <v>25930</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>725</v>
+        <v>534</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -8842,13 +8812,13 @@
         <v>12762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>505</v>
+        <v>720</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -8857,13 +8827,13 @@
         <v>38692</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8848,13 @@
         <v>151507</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -8893,13 +8863,13 @@
         <v>132580</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -8908,13 +8878,13 @@
         <v>284087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8899,13 @@
         <v>287986</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>587</v>
+        <v>736</v>
       </c>
       <c r="H21" s="7">
         <v>481</v>
@@ -8944,13 +8914,13 @@
         <v>480995</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="M21" s="7">
         <v>739</v>
@@ -8959,13 +8929,13 @@
         <v>768981</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>746</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8950,13 @@
         <v>258743</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>744</v>
       </c>
       <c r="H22" s="7">
         <v>362</v>
@@ -8995,13 +8965,13 @@
         <v>244300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="M22" s="7">
         <v>613</v>
@@ -9010,13 +8980,13 @@
         <v>503043</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9072,7 +9042,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9084,13 +9054,13 @@
         <v>54914</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>755</v>
+        <v>474</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>756</v>
+        <v>269</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -9099,13 +9069,13 @@
         <v>16677</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>376</v>
+        <v>753</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>504</v>
+        <v>754</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -9114,13 +9084,13 @@
         <v>71592</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9105,13 @@
         <v>153329</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>761</v>
+        <v>537</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -9150,13 +9120,13 @@
         <v>142036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>764</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>766</v>
+        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>321</v>
@@ -9165,13 +9135,13 @@
         <v>295365</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,13 +9156,13 @@
         <v>337920</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="H26" s="7">
         <v>765</v>
@@ -9201,28 +9171,28 @@
         <v>534647</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="M26" s="7">
         <v>1131</v>
       </c>
       <c r="N26" s="7">
-        <v>872568</v>
+        <v>872567</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,13 +9207,13 @@
         <v>408469</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="H27" s="7">
         <v>599</v>
@@ -9252,28 +9222,28 @@
         <v>447721</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>783</v>
+        <v>123</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="M27" s="7">
         <v>1029</v>
       </c>
       <c r="N27" s="7">
-        <v>856190</v>
+        <v>856189</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9315,7 +9285,7 @@
         <v>2553</v>
       </c>
       <c r="N28" s="7">
-        <v>2095714</v>
+        <v>2095713</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -9341,13 +9311,13 @@
         <v>227907</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="H29" s="7">
         <v>102</v>
@@ -9356,13 +9326,13 @@
         <v>75520</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>791</v>
+        <v>410</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>793</v>
+        <v>689</v>
       </c>
       <c r="M29" s="7">
         <v>323</v>
@@ -9374,10 +9344,10 @@
         <v>756</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>795</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9362,13 @@
         <v>721688</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="H30" s="7">
         <v>848</v>
@@ -9407,13 +9377,13 @@
         <v>618773</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="M30" s="7">
         <v>1518</v>
@@ -9422,13 +9392,13 @@
         <v>1340461</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,13 +9413,13 @@
         <v>1208581</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>402</v>
+        <v>795</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="H31" s="7">
         <v>2529</v>
@@ -9458,13 +9428,13 @@
         <v>1833326</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="M31" s="7">
         <v>3748</v>
@@ -9473,13 +9443,13 @@
         <v>3041907</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,13 +9464,13 @@
         <v>1196731</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>38</v>
+        <v>804</v>
       </c>
       <c r="H32" s="7">
         <v>1858</v>
@@ -9509,13 +9479,13 @@
         <v>1259811</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>501</v>
+        <v>806</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>815</v>
+        <v>618</v>
       </c>
       <c r="M32" s="7">
         <v>3106</v>
@@ -9524,13 +9494,13 @@
         <v>2456542</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>818</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9586,7 +9556,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{585D525B-690E-466A-B34F-4E8447B582FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3212243-B983-48EB-BDA8-C4F06A334CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6B77917-C051-4DAE-8F55-A2498BF5D0AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E869DA19-A27B-46F5-957B-2CE5F49456DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="817">
   <si>
     <t>Población según el ejercicio físico que implica su actividad laboral en 2007 (Tasa respuesta: 99,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Trabajo pesado, tareas que requieren gran esfuerzo físico</t>
@@ -77,2389 +77,2413 @@
     <t>13,01%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>De pie la mayor parte sin grandes desplazamientos o esfuerzo</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>Sentado la mayor parte de la jornada</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>De pie la mayor parte sin grandes desplazamientos o esfuerzo</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>Sentado la mayor parte de la jornada</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2016 (Tasa respuesta: 99,41%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>60,62%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2015 (Tasa respuesta: 99,41%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>35,09%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
   </si>
   <si>
     <t>34,39%</t>
@@ -2877,7 +2901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CDA1DC-E22E-441F-8C63-FA7D6CFA2E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23264F08-2DA3-478C-B797-FF3939E85D39}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3668,13 +3692,13 @@
         <v>363096</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -3683,13 +3707,13 @@
         <v>286336</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>618</v>
@@ -3698,10 +3722,10 @@
         <v>649432</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>123</v>
@@ -3877,10 +3901,10 @@
         <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>440</v>
@@ -3889,13 +3913,13 @@
         <v>431562</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>706</v>
@@ -3904,13 +3928,13 @@
         <v>710437</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3949,13 @@
         <v>245006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -3940,13 +3964,13 @@
         <v>180241</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>415</v>
@@ -3955,13 +3979,13 @@
         <v>425247</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4041,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4029,13 +4053,13 @@
         <v>55824</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -4044,10 +4068,10 @@
         <v>48423</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>165</v>
@@ -4101,7 +4125,7 @@
         <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="M25" s="7">
         <v>214</v>
@@ -4110,13 +4134,13 @@
         <v>215633</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4155,13 @@
         <v>312659</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>474</v>
@@ -4146,13 +4170,13 @@
         <v>495451</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>801</v>
@@ -4161,13 +4185,13 @@
         <v>808111</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4206,13 @@
         <v>422814</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>386</v>
@@ -4197,13 +4221,13 @@
         <v>398596</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>841</v>
@@ -4212,13 +4236,13 @@
         <v>821410</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4310,13 @@
         <v>242261</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>134</v>
@@ -4301,13 +4325,13 @@
         <v>135360</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>365</v>
@@ -4316,13 +4340,13 @@
         <v>377621</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4361,13 @@
         <v>519716</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>220</v>
@@ -4352,13 +4376,13 @@
         <v>229773</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>715</v>
@@ -4367,13 +4391,13 @@
         <v>749489</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4412,13 @@
         <v>1223899</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>1889</v>
@@ -4403,13 +4427,13 @@
         <v>1939911</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>3083</v>
@@ -4418,13 +4442,13 @@
         <v>3163810</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4463,13 @@
         <v>1257296</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>1029</v>
@@ -4454,13 +4478,13 @@
         <v>1048141</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>2290</v>
@@ -4469,13 +4493,13 @@
         <v>2305437</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,7 +4555,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4552,7 +4576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E803DDAC-1513-410D-B926-4111A3F7FE24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B54407D-AE8B-4EE3-8E0E-9555C16891CF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4569,7 +4593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4676,13 +4700,13 @@
         <v>3478</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4691,13 +4715,13 @@
         <v>2195</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4706,13 +4730,13 @@
         <v>5673</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4751,13 @@
         <v>17330</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4742,13 +4766,13 @@
         <v>21870</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4757,13 +4781,13 @@
         <v>39200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4802,13 @@
         <v>69241</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H6" s="7">
         <v>61</v>
@@ -4793,13 +4817,13 @@
         <v>68074</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7">
         <v>129</v>
@@ -4808,13 +4832,13 @@
         <v>137315</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4853,13 @@
         <v>24989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4844,13 +4868,13 @@
         <v>18717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -4859,13 +4883,13 @@
         <v>43707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4957,13 @@
         <v>34992</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4948,13 +4972,13 @@
         <v>1928</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -4963,13 +4987,13 @@
         <v>36919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +5008,13 @@
         <v>69692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -4999,13 +5023,13 @@
         <v>55299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -5014,13 +5038,13 @@
         <v>124991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5059,13 @@
         <v>320428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>358</v>
@@ -5050,13 +5074,13 @@
         <v>379335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>665</v>
@@ -5065,13 +5089,13 @@
         <v>699763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5110,13 @@
         <v>159233</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H12" s="7">
         <v>139</v>
@@ -5101,13 +5125,13 @@
         <v>146597</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M12" s="7">
         <v>284</v>
@@ -5116,13 +5140,13 @@
         <v>305831</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5214,13 @@
         <v>42200</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5205,13 +5229,13 @@
         <v>5047</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -5220,13 +5244,13 @@
         <v>47248</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5265,13 @@
         <v>127781</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H15" s="7">
         <v>87</v>
@@ -5376,10 +5400,10 @@
         <v>331</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5471,13 @@
         <v>28502</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5462,13 +5486,13 @@
         <v>5131</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5477,13 +5501,13 @@
         <v>33633</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5522,13 @@
         <v>140045</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>344</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>345</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -5513,13 +5537,13 @@
         <v>80351</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>203</v>
@@ -5528,13 +5552,13 @@
         <v>220396</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5573,13 @@
         <v>344877</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H21" s="7">
         <v>407</v>
@@ -5564,13 +5588,13 @@
         <v>454894</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M21" s="7">
         <v>720</v>
@@ -5579,13 +5603,13 @@
         <v>799770</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5624,13 @@
         <v>240172</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
         <v>213</v>
@@ -5615,13 +5639,13 @@
         <v>228093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -5630,13 +5654,13 @@
         <v>468265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,7 +5716,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5704,13 +5728,13 @@
         <v>28494</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5719,13 +5743,13 @@
         <v>9492</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -5734,13 +5758,13 @@
         <v>37986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5779,13 @@
         <v>106285</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5770,13 +5794,13 @@
         <v>77928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>178</v>
@@ -5785,13 +5809,13 @@
         <v>184213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5830,13 @@
         <v>460717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H26" s="7">
         <v>604</v>
@@ -5821,13 +5845,13 @@
         <v>628570</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M26" s="7">
         <v>1048</v>
@@ -5836,13 +5860,13 @@
         <v>1089287</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5881,13 @@
         <v>339800</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H27" s="7">
         <v>305</v>
@@ -5872,13 +5896,13 @@
         <v>325178</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>401</v>
+        <v>46</v>
       </c>
       <c r="M27" s="7">
         <v>629</v>
@@ -5887,13 +5911,13 @@
         <v>664978</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5985,13 @@
         <v>137666</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>128</v>
+        <v>402</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -5976,13 +6000,13 @@
         <v>23793</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>408</v>
+        <v>268</v>
       </c>
       <c r="M29" s="7">
         <v>154</v>
@@ -5991,13 +6015,13 @@
         <v>161460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,13 +6036,13 @@
         <v>461133</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>414</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>303</v>
@@ -6027,13 +6051,13 @@
         <v>329427</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M30" s="7">
         <v>737</v>
@@ -6045,10 +6069,10 @@
         <v>139</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6087,13 @@
         <v>1727916</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="H31" s="7">
         <v>1985</v>
@@ -6078,13 +6102,13 @@
         <v>2140860</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M31" s="7">
         <v>3605</v>
@@ -6093,13 +6117,13 @@
         <v>3868777</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6138,13 @@
         <v>1076322</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H32" s="7">
         <v>964</v>
@@ -6129,13 +6153,13 @@
         <v>1038479</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M32" s="7">
         <v>1964</v>
@@ -6144,13 +6168,13 @@
         <v>2114801</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,7 +6230,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6227,7 +6251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F395BA-44FC-435F-A8B7-5431275297A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED991C41-319B-4897-A677-204764A4D974}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6244,7 +6268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6351,13 +6375,13 @@
         <v>1926</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6366,13 +6390,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6381,13 +6405,13 @@
         <v>1926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6426,13 @@
         <v>22149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>443</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6417,13 +6441,13 @@
         <v>8887</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -6432,13 +6456,13 @@
         <v>31036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6477,13 @@
         <v>60634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>73</v>
@@ -6468,13 +6492,13 @@
         <v>71301</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M6" s="7">
         <v>131</v>
@@ -6483,13 +6507,13 @@
         <v>131934</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6528,13 @@
         <v>29930</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -6519,13 +6543,13 @@
         <v>33172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>297</v>
+        <v>459</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -6534,13 +6558,13 @@
         <v>63102</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6576,7 @@
         <v>111</v>
       </c>
       <c r="D8" s="7">
-        <v>114639</v>
+        <v>114638</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -6608,13 +6632,13 @@
         <v>14465</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6623,13 +6647,13 @@
         <v>2705</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -6638,13 +6662,13 @@
         <v>17170</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6683,13 @@
         <v>45508</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -6674,10 +6698,10 @@
         <v>32281</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>477</v>
@@ -6692,10 +6716,10 @@
         <v>478</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>479</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6734,13 @@
         <v>309282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H11" s="7">
         <v>372</v>
@@ -6725,13 +6749,13 @@
         <v>371506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M11" s="7">
         <v>673</v>
@@ -6740,13 +6764,13 @@
         <v>680788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6785,13 @@
         <v>183099</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -6776,13 +6800,13 @@
         <v>150748</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>120</v>
+        <v>493</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M12" s="7">
         <v>319</v>
@@ -6791,13 +6815,13 @@
         <v>333847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,10 +6889,10 @@
         <v>22922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>499</v>
@@ -6886,7 +6910,7 @@
         <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>502</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -6895,13 +6919,13 @@
         <v>26502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>504</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6940,13 @@
         <v>111954</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>506</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -6931,13 +6955,13 @@
         <v>70948</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M15" s="7">
         <v>168</v>
@@ -6946,13 +6970,13 @@
         <v>182902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,16 +6988,16 @@
         <v>491</v>
       </c>
       <c r="D16" s="7">
-        <v>534028</v>
+        <v>534027</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>645</v>
@@ -6982,13 +7006,13 @@
         <v>682805</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>1136</v>
@@ -6997,13 +7021,13 @@
         <v>1216833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,16 +7039,16 @@
         <v>335</v>
       </c>
       <c r="D17" s="7">
-        <v>348506</v>
+        <v>348505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
@@ -7033,13 +7057,13 @@
         <v>278439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
         <v>587</v>
@@ -7048,13 +7072,13 @@
         <v>626945</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>524</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,7 +7090,7 @@
         <v>946</v>
       </c>
       <c r="D18" s="7">
-        <v>1017410</v>
+        <v>1017409</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -7122,13 +7146,13 @@
         <v>20948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7137,13 +7161,13 @@
         <v>3051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -7152,13 +7176,13 @@
         <v>23999</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>533</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,7 +7197,7 @@
         <v>101706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>535</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>536</v>
@@ -7191,10 +7215,10 @@
         <v>538</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -7203,13 +7227,13 @@
         <v>173193</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,7 +7278,7 @@
         <v>808627</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>549</v>
@@ -7367,7 +7391,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7385,7 +7409,7 @@
         <v>561</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>562</v>
+        <v>198</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -7394,13 +7418,13 @@
         <v>7787</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -7409,13 +7433,13 @@
         <v>38054</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,10 +7457,10 @@
         <v>567</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -7463,10 +7487,10 @@
         <v>572</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>198</v>
+        <v>573</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>68</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7505,13 @@
         <v>382274</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H26" s="7">
         <v>538</v>
@@ -7496,13 +7520,13 @@
         <v>574818</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>576</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>579</v>
       </c>
       <c r="M26" s="7">
         <v>918</v>
@@ -7511,13 +7535,13 @@
         <v>957091</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,13 +7556,13 @@
         <v>409275</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H27" s="7">
         <v>330</v>
@@ -7547,13 +7571,13 @@
         <v>374078</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M27" s="7">
         <v>739</v>
@@ -7562,13 +7586,13 @@
         <v>783353</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,10 +7660,10 @@
         <v>90528</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>593</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>128</v>
@@ -7651,13 +7675,13 @@
         <v>17123</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -7666,13 +7690,13 @@
         <v>107651</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7711,13 @@
         <v>388618</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="H30" s="7">
         <v>257</v>
@@ -7702,13 +7726,13 @@
         <v>265151</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>603</v>
       </c>
       <c r="M30" s="7">
         <v>616</v>
@@ -7717,13 +7741,13 @@
         <v>653769</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>263</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7762,13 @@
         <v>1655632</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="H31" s="7">
         <v>2047</v>
@@ -7753,13 +7777,13 @@
         <v>2139642</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="M31" s="7">
         <v>3623</v>
@@ -7768,13 +7792,13 @@
         <v>3795274</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,16 +7810,16 @@
         <v>1188</v>
       </c>
       <c r="D32" s="7">
-        <v>1233308</v>
+        <v>1233307</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="H32" s="7">
         <v>1002</v>
@@ -7804,13 +7828,13 @@
         <v>1106757</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>613</v>
+        <v>399</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="M32" s="7">
         <v>2190</v>
@@ -7819,13 +7843,13 @@
         <v>2340064</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,7 +7861,7 @@
         <v>3207</v>
       </c>
       <c r="D33" s="7">
-        <v>3368086</v>
+        <v>3368085</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -7881,7 +7905,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7902,7 +7926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B317DE-46DF-4D65-9765-90A6C8DBE535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDC8C70-C005-4828-85DD-9316619F3D44}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7919,7 +7943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8026,13 +8050,13 @@
         <v>16367</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -8041,13 +8065,13 @@
         <v>1344</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>531</v>
+        <v>627</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>623</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -8056,13 +8080,13 @@
         <v>17711</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>628</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,13 +8101,13 @@
         <v>26821</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -8092,13 +8116,13 @@
         <v>20308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>635</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M5" s="7">
         <v>63</v>
@@ -8107,13 +8131,13 @@
         <v>47129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,13 +8152,13 @@
         <v>32526</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="H6" s="7">
         <v>133</v>
@@ -8143,13 +8167,13 @@
         <v>70895</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="M6" s="7">
         <v>164</v>
@@ -8158,13 +8182,13 @@
         <v>103420</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,13 +8203,13 @@
         <v>24131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>645</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -8194,13 +8218,13 @@
         <v>37024</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>648</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -8209,13 +8233,13 @@
         <v>61155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>653</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8283,13 +8307,13 @@
         <v>53068</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -8298,13 +8322,13 @@
         <v>18854</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -8313,13 +8337,13 @@
         <v>71922</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,13 +8358,13 @@
         <v>136928</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -8349,13 +8373,13 @@
         <v>123051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="M10" s="7">
         <v>345</v>
@@ -8364,13 +8388,13 @@
         <v>259978</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8385,13 +8409,13 @@
         <v>195355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="H11" s="7">
         <v>446</v>
@@ -8400,13 +8424,13 @@
         <v>264696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="M11" s="7">
         <v>665</v>
@@ -8415,13 +8439,13 @@
         <v>460051</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8436,13 +8460,13 @@
         <v>162396</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>679</v>
+        <v>227</v>
       </c>
       <c r="H12" s="7">
         <v>320</v>
@@ -8451,13 +8475,13 @@
         <v>184463</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="M12" s="7">
         <v>514</v>
@@ -8466,13 +8490,13 @@
         <v>346860</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8540,13 +8564,13 @@
         <v>77628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -8555,13 +8579,13 @@
         <v>25883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>689</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="M14" s="7">
         <v>113</v>
@@ -8570,13 +8594,13 @@
         <v>103510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8591,13 +8615,13 @@
         <v>253104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="H15" s="7">
         <v>269</v>
@@ -8606,13 +8630,13 @@
         <v>200798</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="M15" s="7">
         <v>470</v>
@@ -8621,13 +8645,13 @@
         <v>453903</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>702</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8642,13 +8666,13 @@
         <v>354794</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="H16" s="7">
         <v>704</v>
@@ -8657,13 +8681,13 @@
         <v>482094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>709</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>1049</v>
@@ -8672,13 +8696,13 @@
         <v>836888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8693,13 +8717,13 @@
         <v>342991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="H17" s="7">
         <v>501</v>
@@ -8708,13 +8732,13 @@
         <v>346303</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>585</v>
+        <v>717</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -8723,13 +8747,13 @@
         <v>689294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,13 +8821,13 @@
         <v>25930</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>724</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -8812,13 +8836,13 @@
         <v>12762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>721</v>
+        <v>535</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -8827,13 +8851,13 @@
         <v>38692</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>722</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>724</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8848,13 +8872,13 @@
         <v>151507</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -8863,13 +8887,13 @@
         <v>132580</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>730</v>
+        <v>457</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -8878,13 +8902,13 @@
         <v>284087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8899,13 +8923,13 @@
         <v>287986</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H21" s="7">
         <v>481</v>
@@ -8914,13 +8938,13 @@
         <v>480995</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="M21" s="7">
         <v>739</v>
@@ -8929,13 +8953,13 @@
         <v>768981</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>74</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8950,13 +8974,13 @@
         <v>258743</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="H22" s="7">
         <v>362</v>
@@ -8965,13 +8989,13 @@
         <v>244300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="M22" s="7">
         <v>613</v>
@@ -8980,13 +9004,13 @@
         <v>503043</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9042,7 +9066,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9054,13 +9078,13 @@
         <v>54914</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>474</v>
+        <v>754</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>269</v>
+        <v>755</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -9069,13 +9093,13 @@
         <v>16677</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -9084,13 +9108,13 @@
         <v>71592</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9105,13 +9129,13 @@
         <v>153329</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>537</v>
+        <v>762</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -9120,10 +9144,10 @@
         <v>142036</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>765</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>98</v>
@@ -9135,13 +9159,13 @@
         <v>295365</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9156,13 +9180,13 @@
         <v>337920</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="H26" s="7">
         <v>765</v>
@@ -9171,13 +9195,13 @@
         <v>534647</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="M26" s="7">
         <v>1131</v>
@@ -9186,13 +9210,13 @@
         <v>872567</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9207,13 +9231,13 @@
         <v>408469</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="H27" s="7">
         <v>599</v>
@@ -9222,13 +9246,13 @@
         <v>447721</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="M27" s="7">
         <v>1029</v>
@@ -9237,13 +9261,13 @@
         <v>856189</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9311,13 +9335,13 @@
         <v>227907</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="H29" s="7">
         <v>102</v>
@@ -9326,13 +9350,13 @@
         <v>75520</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>689</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>323</v>
@@ -9341,13 +9365,13 @@
         <v>303427</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9362,13 +9386,13 @@
         <v>721688</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="H30" s="7">
         <v>848</v>
@@ -9377,13 +9401,13 @@
         <v>618773</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="M30" s="7">
         <v>1518</v>
@@ -9392,13 +9416,13 @@
         <v>1340461</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9413,13 +9437,13 @@
         <v>1208581</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="H31" s="7">
         <v>2529</v>
@@ -9428,13 +9452,13 @@
         <v>1833326</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="M31" s="7">
         <v>3748</v>
@@ -9443,13 +9467,13 @@
         <v>3041907</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9464,13 +9488,13 @@
         <v>1196731</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="H32" s="7">
         <v>1858</v>
@@ -9479,13 +9503,13 @@
         <v>1259811</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>618</v>
+        <v>814</v>
       </c>
       <c r="M32" s="7">
         <v>3106</v>
@@ -9494,13 +9518,13 @@
         <v>2456542</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9556,7 +9580,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3212243-B983-48EB-BDA8-C4F06A334CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D268EA0D-27D1-4A18-A1A8-0060C7F89B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E869DA19-A27B-46F5-957B-2CE5F49456DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B61C202D-FC23-475C-A9B0-1501CE497D41}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="819">
   <si>
     <t>Población según el ejercicio físico que implica su actividad laboral en 2007 (Tasa respuesta: 99,11%)</t>
   </si>
@@ -77,2419 +77,2425 @@
     <t>13,01%</t>
   </si>
   <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>De pie la mayor parte sin grandes desplazamientos o esfuerzo</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>Sentado la mayor parte de la jornada</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>Caminando, llevando algún peso, desplazamientos frecuentes</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>De pie la mayor parte sin grandes desplazamientos o esfuerzo</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>Sentado la mayor parte de la jornada</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2016 (Tasa respuesta: 99,41%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>49,58%</t>
   </si>
   <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2012 (Tasa respuesta: 99,28%)</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2016 (Tasa respuesta: 99,41%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>Población según el ejercicio físico que implica su actividad laboral en 2023 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>42,59%</t>
   </si>
   <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>35,12%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>32,34%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
 </sst>
 </file>
@@ -2901,7 +2907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23264F08-2DA3-478C-B797-FF3939E85D39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FAADBA-0EC8-43CD-B8F7-86AEE355BA91}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3536,7 +3542,7 @@
         <v>70</v>
       </c>
       <c r="D14" s="7">
-        <v>76699</v>
+        <v>76698</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -3692,13 +3698,13 @@
         <v>363096</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -3707,13 +3713,13 @@
         <v>286336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>618</v>
@@ -3722,13 +3728,13 @@
         <v>649432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3746,7 @@
         <v>891</v>
       </c>
       <c r="D18" s="7">
-        <v>956680</v>
+        <v>956679</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -3784,7 +3790,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3796,13 +3802,13 @@
         <v>38115</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -3811,13 +3817,13 @@
         <v>22728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -3826,13 +3832,13 @@
         <v>60843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,10 +3856,10 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -3862,13 +3868,13 @@
         <v>44492</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -3877,13 +3883,13 @@
         <v>153970</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3904,13 @@
         <v>278874</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>440</v>
@@ -3913,13 +3919,13 @@
         <v>431562</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>706</v>
@@ -3928,13 +3934,13 @@
         <v>710437</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3955,13 @@
         <v>245006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -3964,13 +3970,13 @@
         <v>180241</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>415</v>
@@ -3979,13 +3985,13 @@
         <v>425247</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,7 +4047,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4053,13 +4059,13 @@
         <v>55824</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -4068,13 +4074,13 @@
         <v>48423</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>104</v>
@@ -4083,13 +4089,13 @@
         <v>104248</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4110,13 @@
         <v>133870</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -4119,13 +4125,13 @@
         <v>81763</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>214</v>
@@ -4134,13 +4140,13 @@
         <v>215633</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4161,13 @@
         <v>312659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>474</v>
@@ -4170,13 +4176,13 @@
         <v>495451</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>801</v>
@@ -4185,13 +4191,13 @@
         <v>808111</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4212,13 @@
         <v>422814</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>386</v>
@@ -4221,13 +4227,13 @@
         <v>398596</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>841</v>
@@ -4236,13 +4242,13 @@
         <v>821410</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4316,13 @@
         <v>242261</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>134</v>
@@ -4325,13 +4331,13 @@
         <v>135360</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>365</v>
@@ -4340,13 +4346,13 @@
         <v>377621</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4367,13 @@
         <v>519716</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>220</v>
@@ -4376,13 +4382,13 @@
         <v>229773</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>715</v>
@@ -4391,13 +4397,13 @@
         <v>749489</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4418,13 @@
         <v>1223899</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>1889</v>
@@ -4427,13 +4433,13 @@
         <v>1939911</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>3083</v>
@@ -4442,13 +4448,13 @@
         <v>3163810</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4469,13 @@
         <v>1257296</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>1029</v>
@@ -4478,13 +4484,13 @@
         <v>1048141</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>2290</v>
@@ -4493,13 +4499,13 @@
         <v>2305437</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,7 +4561,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B54407D-AE8B-4EE3-8E0E-9555C16891CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC84DAF-037C-46CF-BF60-0748CBD301A8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4593,7 +4599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4700,13 +4706,13 @@
         <v>3478</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4715,13 +4721,13 @@
         <v>2195</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4730,13 +4736,13 @@
         <v>5673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4757,13 @@
         <v>17330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4766,13 +4772,13 @@
         <v>21870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -4781,13 +4787,13 @@
         <v>39200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4808,13 @@
         <v>69241</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H6" s="7">
         <v>61</v>
@@ -4817,13 +4823,13 @@
         <v>68074</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>129</v>
@@ -4832,13 +4838,13 @@
         <v>137315</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4859,13 @@
         <v>24989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4868,13 +4874,13 @@
         <v>18717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>47</v>
@@ -4883,13 +4889,13 @@
         <v>43707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4963,13 @@
         <v>34992</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4972,13 +4978,13 @@
         <v>1928</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -4987,13 +4993,13 @@
         <v>36919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5014,13 @@
         <v>69692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>50</v>
@@ -5023,13 +5029,13 @@
         <v>55299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -5038,13 +5044,13 @@
         <v>124991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5065,13 @@
         <v>320428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>358</v>
@@ -5074,13 +5080,13 @@
         <v>379335</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>665</v>
@@ -5089,13 +5095,13 @@
         <v>699763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5116,13 @@
         <v>159233</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H12" s="7">
         <v>139</v>
@@ -5125,13 +5131,13 @@
         <v>146597</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M12" s="7">
         <v>284</v>
@@ -5140,13 +5146,13 @@
         <v>305831</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5220,13 @@
         <v>42200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5229,13 +5235,13 @@
         <v>5047</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -5244,13 +5250,13 @@
         <v>47248</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5271,13 @@
         <v>127781</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H15" s="7">
         <v>87</v>
@@ -5280,13 +5286,13 @@
         <v>93980</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M15" s="7">
         <v>205</v>
@@ -5295,13 +5301,13 @@
         <v>221760</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>313</v>
+        <v>68</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5322,13 @@
         <v>532654</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>555</v>
@@ -5331,13 +5337,13 @@
         <v>609988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>1043</v>
@@ -5346,13 +5352,13 @@
         <v>1142642</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5373,13 @@
         <v>312128</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>290</v>
@@ -5382,13 +5388,13 @@
         <v>319893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>577</v>
@@ -5397,13 +5403,13 @@
         <v>632021</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,7 +5465,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5471,13 +5477,13 @@
         <v>28502</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5486,13 +5492,13 @@
         <v>5131</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5501,13 +5507,13 @@
         <v>33633</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5528,13 @@
         <v>140045</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -5537,13 +5543,13 @@
         <v>80351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M20" s="7">
         <v>203</v>
@@ -5552,13 +5558,13 @@
         <v>220396</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5579,13 @@
         <v>344877</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H21" s="7">
         <v>407</v>
@@ -5588,13 +5594,13 @@
         <v>454894</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M21" s="7">
         <v>720</v>
@@ -5603,13 +5609,13 @@
         <v>799770</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5630,13 @@
         <v>240172</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>213</v>
@@ -5639,13 +5645,13 @@
         <v>228093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -5654,13 +5660,13 @@
         <v>468265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,7 +5722,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5728,13 +5734,13 @@
         <v>28494</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -5743,13 +5749,13 @@
         <v>9492</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -5758,13 +5764,13 @@
         <v>37986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5785,13 @@
         <v>106285</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5794,13 +5800,13 @@
         <v>77928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>380</v>
+        <v>245</v>
       </c>
       <c r="M25" s="7">
         <v>178</v>
@@ -5809,13 +5815,13 @@
         <v>184213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>383</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5836,13 @@
         <v>460717</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H26" s="7">
         <v>604</v>
@@ -5845,13 +5851,13 @@
         <v>628570</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M26" s="7">
         <v>1048</v>
@@ -5860,13 +5866,13 @@
         <v>1089287</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5887,13 @@
         <v>339800</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H27" s="7">
         <v>305</v>
@@ -5896,13 +5902,13 @@
         <v>325178</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>401</v>
       </c>
       <c r="M27" s="7">
         <v>629</v>
@@ -5911,13 +5917,13 @@
         <v>664978</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>399</v>
+        <v>227</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5991,13 @@
         <v>137666</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -6000,13 +6006,13 @@
         <v>23793</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>268</v>
+        <v>408</v>
       </c>
       <c r="M29" s="7">
         <v>154</v>
@@ -6015,13 +6021,13 @@
         <v>161460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>406</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6042,13 @@
         <v>461133</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>413</v>
       </c>
       <c r="H30" s="7">
         <v>303</v>
@@ -6051,13 +6057,13 @@
         <v>329427</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M30" s="7">
         <v>737</v>
@@ -6066,13 +6072,13 @@
         <v>790561</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>414</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,13 +6093,13 @@
         <v>1727916</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H31" s="7">
         <v>1985</v>
@@ -6102,13 +6108,13 @@
         <v>2140860</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M31" s="7">
         <v>3605</v>
@@ -6117,13 +6123,13 @@
         <v>3868777</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6144,13 @@
         <v>1076322</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H32" s="7">
         <v>964</v>
@@ -6153,13 +6159,13 @@
         <v>1038479</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M32" s="7">
         <v>1964</v>
@@ -6168,13 +6174,13 @@
         <v>2114801</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,7 +6236,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6251,7 +6257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED991C41-319B-4897-A677-204764A4D974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CED7B59-2F1D-49D1-83C4-E34EFD191844}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6268,7 +6274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6375,13 +6381,13 @@
         <v>1926</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6390,13 +6396,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6405,13 +6411,13 @@
         <v>1926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6432,13 @@
         <v>22149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>444</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6441,13 +6447,13 @@
         <v>8887</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -6456,13 +6462,13 @@
         <v>31036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6483,13 @@
         <v>60634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>73</v>
@@ -6492,13 +6498,13 @@
         <v>71301</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>131</v>
@@ -6507,13 +6513,13 @@
         <v>131934</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6534,13 @@
         <v>29930</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -6543,13 +6549,13 @@
         <v>33172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>62</v>
@@ -6558,13 +6564,13 @@
         <v>63102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,7 +6582,7 @@
         <v>111</v>
       </c>
       <c r="D8" s="7">
-        <v>114638</v>
+        <v>114639</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -6632,13 +6638,13 @@
         <v>14465</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6647,13 +6653,13 @@
         <v>2705</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -6662,13 +6668,13 @@
         <v>17170</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>470</v>
+        <v>344</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>475</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6689,13 @@
         <v>45508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -6698,13 +6704,13 @@
         <v>32281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -6713,13 +6719,13 @@
         <v>77788</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,13 +6740,13 @@
         <v>309282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H11" s="7">
         <v>372</v>
@@ -6749,13 +6755,13 @@
         <v>371506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M11" s="7">
         <v>673</v>
@@ -6764,13 +6770,13 @@
         <v>680788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,13 +6791,13 @@
         <v>183099</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -6800,13 +6806,13 @@
         <v>150748</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="M12" s="7">
         <v>319</v>
@@ -6815,13 +6821,13 @@
         <v>333847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6895,13 @@
         <v>22922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>504</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -6904,13 +6910,13 @@
         <v>3580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -6919,13 +6925,13 @@
         <v>26502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6946,13 @@
         <v>111954</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>508</v>
+        <v>351</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -6955,13 +6961,13 @@
         <v>70948</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M15" s="7">
         <v>168</v>
@@ -6970,13 +6976,13 @@
         <v>182902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,16 +6994,16 @@
         <v>491</v>
       </c>
       <c r="D16" s="7">
-        <v>534027</v>
+        <v>534028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>645</v>
@@ -7006,13 +7012,13 @@
         <v>682805</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>1136</v>
@@ -7021,13 +7027,13 @@
         <v>1216833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,16 +7045,16 @@
         <v>335</v>
       </c>
       <c r="D17" s="7">
-        <v>348505</v>
+        <v>348506</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>527</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
@@ -7057,13 +7063,13 @@
         <v>278439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>523</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M17" s="7">
         <v>587</v>
@@ -7072,13 +7078,13 @@
         <v>626945</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>532</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,7 +7096,7 @@
         <v>946</v>
       </c>
       <c r="D18" s="7">
-        <v>1017409</v>
+        <v>1017410</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -7134,7 +7140,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7146,13 +7152,13 @@
         <v>20948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>530</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7161,13 +7167,13 @@
         <v>3051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>531</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -7176,13 +7182,13 @@
         <v>23999</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7203,13 @@
         <v>101706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>537</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -7212,13 +7218,13 @@
         <v>71487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>539</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -7227,13 +7233,13 @@
         <v>173193</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7254,13 @@
         <v>369415</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H21" s="7">
         <v>419</v>
@@ -7263,13 +7269,13 @@
         <v>439212</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="M21" s="7">
         <v>765</v>
@@ -7278,13 +7284,13 @@
         <v>808627</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,13 +7305,13 @@
         <v>262497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H22" s="7">
         <v>245</v>
@@ -7314,13 +7320,13 @@
         <v>270321</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>483</v>
@@ -7329,13 +7335,13 @@
         <v>532817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,7 +7397,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7403,13 +7409,13 @@
         <v>30267</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>198</v>
+        <v>564</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -7418,13 +7424,13 @@
         <v>7787</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>564</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -7433,13 +7439,13 @@
         <v>38054</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>407</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,13 +7460,13 @@
         <v>107301</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>570</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H25" s="7">
         <v>79</v>
@@ -7469,13 +7475,13 @@
         <v>81548</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M25" s="7">
         <v>186</v>
@@ -7484,13 +7490,13 @@
         <v>188849</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7505,13 +7511,13 @@
         <v>382274</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H26" s="7">
         <v>538</v>
@@ -7520,13 +7526,13 @@
         <v>574818</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>581</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M26" s="7">
         <v>918</v>
@@ -7535,13 +7541,13 @@
         <v>957091</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,13 +7562,13 @@
         <v>409275</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H27" s="7">
         <v>330</v>
@@ -7571,13 +7577,13 @@
         <v>374078</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M27" s="7">
         <v>739</v>
@@ -7586,13 +7592,13 @@
         <v>783353</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +7666,13 @@
         <v>90528</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>128</v>
+        <v>598</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -7675,13 +7681,13 @@
         <v>17123</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="M29" s="7">
         <v>101</v>
@@ -7690,13 +7696,13 @@
         <v>107651</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7717,13 @@
         <v>388618</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H30" s="7">
         <v>257</v>
@@ -7726,13 +7732,13 @@
         <v>265151</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="M30" s="7">
         <v>616</v>
@@ -7741,13 +7747,13 @@
         <v>653769</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,13 +7768,13 @@
         <v>1655632</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H31" s="7">
         <v>2047</v>
@@ -7777,13 +7783,13 @@
         <v>2139642</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="M31" s="7">
         <v>3623</v>
@@ -7792,13 +7798,13 @@
         <v>3795274</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,13 +7819,13 @@
         <v>1233307</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="H32" s="7">
         <v>1002</v>
@@ -7828,28 +7834,28 @@
         <v>1106757</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>399</v>
+        <v>623</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="M32" s="7">
         <v>2190</v>
       </c>
       <c r="N32" s="7">
-        <v>2340064</v>
+        <v>2340065</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,7 +7897,7 @@
         <v>6530</v>
       </c>
       <c r="N33" s="7">
-        <v>6896758</v>
+        <v>6896759</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -7905,7 +7911,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -7926,7 +7932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDC8C70-C005-4828-85DD-9316619F3D44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A059F1-421D-418F-AED1-27B1AC925A4A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7943,7 +7949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8050,13 +8056,13 @@
         <v>16367</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -8065,13 +8071,13 @@
         <v>1344</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>443</v>
+        <v>634</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -8080,13 +8086,13 @@
         <v>17711</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8107,13 @@
         <v>26821</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -8116,13 +8122,13 @@
         <v>20308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>635</v>
+        <v>416</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="M5" s="7">
         <v>63</v>
@@ -8131,13 +8137,13 @@
         <v>47129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8158,13 @@
         <v>32526</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="H6" s="7">
         <v>133</v>
@@ -8167,13 +8173,13 @@
         <v>70895</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>645</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
         <v>164</v>
@@ -8182,13 +8188,13 @@
         <v>103420</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8209,13 @@
         <v>24131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>655</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -8218,13 +8224,13 @@
         <v>37024</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>458</v>
+        <v>658</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -8233,13 +8239,13 @@
         <v>61155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8313,13 @@
         <v>53068</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>658</v>
+        <v>178</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -8322,13 +8328,13 @@
         <v>18854</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>661</v>
+        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -8337,13 +8343,13 @@
         <v>71922</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>442</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8364,13 @@
         <v>136928</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -8373,13 +8379,13 @@
         <v>123051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="M10" s="7">
         <v>345</v>
@@ -8388,13 +8394,13 @@
         <v>259978</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +8415,13 @@
         <v>195355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H11" s="7">
         <v>446</v>
@@ -8424,13 +8430,13 @@
         <v>264696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="M11" s="7">
         <v>665</v>
@@ -8439,13 +8445,13 @@
         <v>460051</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,13 +8466,13 @@
         <v>162396</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>227</v>
+        <v>688</v>
       </c>
       <c r="H12" s="7">
         <v>320</v>
@@ -8475,13 +8481,13 @@
         <v>184463</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>686</v>
+        <v>559</v>
       </c>
       <c r="M12" s="7">
         <v>514</v>
@@ -8490,13 +8496,13 @@
         <v>346860</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>689</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,13 +8570,13 @@
         <v>77628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>691</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -8579,13 +8585,13 @@
         <v>25883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>694</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M14" s="7">
         <v>113</v>
@@ -8594,13 +8600,13 @@
         <v>103510</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>697</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,13 +8621,13 @@
         <v>253104</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H15" s="7">
         <v>269</v>
@@ -8630,13 +8636,13 @@
         <v>200798</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M15" s="7">
         <v>470</v>
@@ -8645,13 +8651,13 @@
         <v>453903</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>397</v>
+        <v>707</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8666,13 +8672,13 @@
         <v>354794</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H16" s="7">
         <v>704</v>
@@ -8681,13 +8687,13 @@
         <v>482094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>713</v>
       </c>
       <c r="M16" s="7">
         <v>1049</v>
@@ -8696,13 +8702,13 @@
         <v>836888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>712</v>
+        <v>620</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,13 +8723,13 @@
         <v>342991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H17" s="7">
         <v>501</v>
@@ -8732,13 +8738,13 @@
         <v>346303</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M17" s="7">
         <v>836</v>
@@ -8747,13 +8753,13 @@
         <v>689294</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>722</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,7 +8815,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8821,13 +8827,13 @@
         <v>25930</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -8836,13 +8842,13 @@
         <v>12762</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>726</v>
+        <v>505</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>535</v>
+        <v>727</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -8851,13 +8857,13 @@
         <v>38692</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>727</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,13 +8878,13 @@
         <v>151507</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -8887,13 +8893,13 @@
         <v>132580</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>457</v>
+        <v>735</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -8902,13 +8908,13 @@
         <v>284087</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,13 +8929,13 @@
         <v>287986</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>738</v>
+        <v>587</v>
       </c>
       <c r="H21" s="7">
         <v>481</v>
@@ -8938,13 +8944,13 @@
         <v>480995</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="M21" s="7">
         <v>739</v>
@@ -8953,13 +8959,13 @@
         <v>768981</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +8980,13 @@
         <v>258743</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>747</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>362</v>
@@ -8989,13 +8995,13 @@
         <v>244300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M22" s="7">
         <v>613</v>
@@ -9004,13 +9010,13 @@
         <v>503043</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,7 +9072,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9078,13 +9084,13 @@
         <v>54914</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -9093,13 +9099,13 @@
         <v>16677</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>758</v>
+        <v>376</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>759</v>
+        <v>504</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -9108,13 +9114,13 @@
         <v>71592</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>760</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9129,13 +9135,13 @@
         <v>153329</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>764</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -9144,13 +9150,13 @@
         <v>142036</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>766</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M25" s="7">
         <v>321</v>
@@ -9207,7 +9213,7 @@
         <v>1131</v>
       </c>
       <c r="N26" s="7">
-        <v>872567</v>
+        <v>872568</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>776</v>
@@ -9249,25 +9255,25 @@
         <v>782</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>228</v>
+        <v>783</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="M27" s="7">
         <v>1029</v>
       </c>
       <c r="N27" s="7">
-        <v>856189</v>
+        <v>856190</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,7 +9315,7 @@
         <v>2553</v>
       </c>
       <c r="N28" s="7">
-        <v>2095713</v>
+        <v>2095714</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -9335,13 +9341,13 @@
         <v>227907</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H29" s="7">
         <v>102</v>
@@ -9350,13 +9356,13 @@
         <v>75520</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>406</v>
+        <v>791</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>334</v>
+        <v>793</v>
       </c>
       <c r="M29" s="7">
         <v>323</v>
@@ -9365,13 +9371,13 @@
         <v>303427</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>661</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9386,13 +9392,13 @@
         <v>721688</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="H30" s="7">
         <v>848</v>
@@ -9401,13 +9407,13 @@
         <v>618773</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="M30" s="7">
         <v>1518</v>
@@ -9416,13 +9422,13 @@
         <v>1340461</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,13 +9443,13 @@
         <v>1208581</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>802</v>
+        <v>402</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="H31" s="7">
         <v>2529</v>
@@ -9452,13 +9458,13 @@
         <v>1833326</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="M31" s="7">
         <v>3748</v>
@@ -9467,13 +9473,13 @@
         <v>3041907</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9488,13 +9494,13 @@
         <v>1196731</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>811</v>
+        <v>38</v>
       </c>
       <c r="H32" s="7">
         <v>1858</v>
@@ -9503,13 +9509,13 @@
         <v>1259811</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>813</v>
+        <v>501</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M32" s="7">
         <v>3106</v>
@@ -9518,13 +9524,13 @@
         <v>2456542</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>673</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9580,7 +9586,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
